--- a/backups/progress_backup_product_1.xlsx
+++ b/backups/progress_backup_product_1.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Seamless Pattern</t>
@@ -583,7 +583,7 @@
       <c r="L2" s="5" t="n"/>
       <c r="M2" s="5" t="n"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1">
+    <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Digital Paper</t>
@@ -615,10 +615,26 @@
       <c r="M3" s="5" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
@@ -630,10 +646,26 @@
       <c r="M4" s="5" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
@@ -645,10 +677,26 @@
       <c r="M5" s="5" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
@@ -660,10 +708,26 @@
       <c r="M6" s="5" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="n"/>
@@ -675,10 +739,26 @@
       <c r="M7" s="5" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="n"/>
@@ -690,10 +770,26 @@
       <c r="M8" s="5" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E9" s="5" t="n"/>
       <c r="F9" s="5" t="n"/>
       <c r="G9" s="5" t="n"/>
@@ -705,10 +801,26 @@
       <c r="M9" s="5" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E10" s="5" t="n"/>
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="5" t="n"/>
@@ -720,10 +832,26 @@
       <c r="M10" s="5" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E11" s="5" t="n"/>
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="5" t="n"/>
@@ -735,10 +863,26 @@
       <c r="M11" s="5" t="n"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E12" s="5" t="n"/>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="n"/>
@@ -750,10 +894,26 @@
       <c r="M12" s="5" t="n"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E13" s="5" t="n"/>
       <c r="F13" s="5" t="n"/>
       <c r="G13" s="5" t="n"/>
@@ -765,10 +925,26 @@
       <c r="M13" s="5" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E14" s="5" t="n"/>
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="n"/>
@@ -780,10 +956,26 @@
       <c r="M14" s="5" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E15" s="5" t="n"/>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="n"/>
@@ -795,10 +987,26 @@
       <c r="M15" s="5" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Seamless Pattern</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Cherry Blossoms</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>A luxurious modern living room with floor-to-ceiling windows, natural light streaming in, minimalist white furniture, warm wood accents, and a statement chandelier. Soft textiles, potted plants, and abstract art create a sophisticated atmosphere. Photorealistic, interior design photography --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="5" t="n"/>
       <c r="G16" s="5" t="n"/>
@@ -810,10 +1018,26 @@
       <c r="M16" s="5" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Digital Paper</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>2nd Digital Paper</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>An elegant open-concept kitchen with marble countertops, brass fixtures, and custom white cabinetry. Island with pendant lights, herringbone wood floors, and professional appliances. Bright and airy with modern farmhouse touches. Architectural photography style --ar 1:1 --v 5.2</t>
+        </is>
+      </c>
       <c r="E17" s="5" t="n"/>
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="5" t="n"/>
@@ -1244,7 +1468,7 @@
       <c r="L45" s="5" t="n"/>
       <c r="M45" s="5" t="n"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" ht="18" customHeight="1">
       <c r="A46" s="5" t="n"/>
       <c r="B46" s="5" t="n"/>
       <c r="C46" s="5" t="n"/>
@@ -1259,7 +1483,7 @@
       <c r="L46" s="5" t="n"/>
       <c r="M46" s="5" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" ht="18" customHeight="1">
       <c r="A47" s="5" t="n"/>
       <c r="B47" s="5" t="n"/>
       <c r="C47" s="5" t="n"/>
@@ -1274,7 +1498,7 @@
       <c r="L47" s="5" t="n"/>
       <c r="M47" s="5" t="n"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" ht="18" customHeight="1">
       <c r="A48" s="5" t="n"/>
       <c r="B48" s="5" t="n"/>
       <c r="C48" s="5" t="n"/>

--- a/backups/progress_backup_product_1.xlsx
+++ b/backups/progress_backup_product_1.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
